--- a/Backup/INTERVIEW_QUESTIONS/Ansible_IQ.xlsx
+++ b/Backup/INTERVIEW_QUESTIONS/Ansible_IQ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
   <si>
     <t>What is Ansible</t>
   </si>
@@ -484,13 +484,346 @@
   <si>
     <t>ad-hoc commands are nothing but a command which is used to do something quickly and it is more sort of one-time use. Unlike, the playbook is used for a repeated action which is something that is very useful in the Ansible environment. But there might be scenarios where we want to use ad-hoc commands which can simply do the required activity and it is a nonrepetitive activity.</t>
   </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>open source
+IT engine
+used to automate deployment
+cloud provisioning
+orchestration</t>
+  </si>
+  <si>
+    <t>where are ansible modules executed</t>
+  </si>
+  <si>
+    <t>ansible modules are pushed on client side
+they are executed on client machines
+output is pushed back on ansible server</t>
+  </si>
+  <si>
+    <t>how does an ansible machine connect to client machines</t>
+  </si>
+  <si>
+    <t>where are the client details stored</t>
+  </si>
+  <si>
+    <t>client hostname, username, password are stored in a file
+in an inventory on the ansible machine - machine on which ansible is installed</t>
+  </si>
+  <si>
+    <t>how are ansible playbooks written</t>
+  </si>
+  <si>
+    <t>Ansible playbooks are written in YAML</t>
+  </si>
+  <si>
+    <t>what is YAML</t>
+  </si>
+  <si>
+    <t>Yet Another Markup Language
+Human readable markup language to write ansible playbooks</t>
+  </si>
+  <si>
+    <t>using SSH
+using kerberos</t>
+  </si>
+  <si>
+    <t>what is inventory</t>
+  </si>
+  <si>
+    <t>inventory consists of text files which contains information about the client nodes or group of client nodes that need to be configured</t>
+  </si>
+  <si>
+    <t>It is free
+it is agentless
+It is simple to learn and use - no special admin skills are needed
+It is light weight
+It connects to client nodes using SSH
+It is modular</t>
+  </si>
+  <si>
+    <t>Explain modularity feature of ansible</t>
+  </si>
+  <si>
+    <t>Ansible uses modules, plugins, inventory, playbooks</t>
+  </si>
+  <si>
+    <t>Explain ansible workflow</t>
+  </si>
+  <si>
+    <t>What is management node</t>
+  </si>
+  <si>
+    <t>Controlling node on which ansible is installed
+Inventory is present on this machine
+It must be a linux machine
+SSH to client nodes is done from this machine</t>
+  </si>
+  <si>
+    <t>What is Ansible server</t>
+  </si>
+  <si>
+    <t>Linux machine on which ansible is installed
+Playbooks are run on this machine
+this is controlling node</t>
+  </si>
+  <si>
+    <t>What is a module</t>
+  </si>
+  <si>
+    <t>What is ansible task</t>
+  </si>
+  <si>
+    <t>smallest unit of action that a playbook performs</t>
+  </si>
+  <si>
+    <t>What is ansible role</t>
+  </si>
+  <si>
+    <t>what is ansible fact</t>
+  </si>
+  <si>
+    <t>Information that is fetched from the client node
+This information is fetched from the global variables on the client node
+This information is fetched using "gather facts"</t>
+  </si>
+  <si>
+    <t>What is inventory</t>
+  </si>
+  <si>
+    <t>What is play</t>
+  </si>
+  <si>
+    <t>Execution of playbook is called play</t>
+  </si>
+  <si>
+    <t>What is ansible handler</t>
+  </si>
+  <si>
+    <t>It is an ansible task
+This task is called or executed only if notify is present</t>
+  </si>
+  <si>
+    <t>what is notifier</t>
+  </si>
+  <si>
+    <t>section of the task that will call the handler</t>
+  </si>
+  <si>
+    <t>what is tag</t>
+  </si>
+  <si>
+    <t>what is ansible orchestration engine</t>
+  </si>
+  <si>
+    <t>It is installed on the ansible server
+It interacts with the user that runs the playbook
+It also interacts with the services of the private cloud and public cloud
+It also interacts with the configuration management database</t>
+  </si>
+  <si>
+    <t>It is a file or collection of files that contain information about the client node that needs to be managed
+hostname, IP address, username to be used to connect, password</t>
+  </si>
+  <si>
+    <t>Why use ansible</t>
+  </si>
+  <si>
+    <t>Ansible connects to client nodes
+pushes the ansible modules on client nodes
+These are executed and then removed from client nodes
+Output is pushed back to the ansible machine
+No agent or running daemon is involved</t>
+  </si>
+  <si>
+    <t>Ansible API</t>
+  </si>
+  <si>
+    <t>used to connect to private and public cloud
+used to avail the services of public and private cloud</t>
+  </si>
+  <si>
+    <t>where are ansible modules located</t>
+  </si>
+  <si>
+    <t>how are ansible modules executed</t>
+  </si>
+  <si>
+    <t>ansible modules are piece of code
+executed either from command line
+or from playbook task</t>
+  </si>
+  <si>
+    <t>arguments to ansible modules</t>
+  </si>
+  <si>
+    <t>how to access documentation of ansible modules</t>
+  </si>
+  <si>
+    <t>ansible-doc &lt;module name&gt;</t>
+  </si>
+  <si>
+    <t>either no arguments
+or comma seperated name value pair</t>
+  </si>
+  <si>
+    <t>ansible plugin</t>
+  </si>
+  <si>
+    <t>piece of code used to extend the core functionality of ansible</t>
+  </si>
+  <si>
+    <t>ansible playbook</t>
+  </si>
+  <si>
+    <t>why write playbook</t>
+  </si>
+  <si>
+    <t>if you want to execute a task more than once with ansible, we should write a playbook
+put the playbooks in source control</t>
+  </si>
+  <si>
+    <t>consists of code
+written in YAML format
+collection of plays</t>
+  </si>
+  <si>
+    <t>in what order is a playbook executed</t>
+  </si>
+  <si>
+    <t>it is executed from top to bottom</t>
+  </si>
+  <si>
+    <t>command to run the ansible playbook</t>
+  </si>
+  <si>
+    <t>ansible-playbook &lt;name of playbook&gt;</t>
+  </si>
+  <si>
+    <t>each ansible module checks if the desired state has been achieved
+it does nothing if the state is already achieved
+whether you run the module once or multiple times, output should be same
+modules which behave this way are called idempotent</t>
+  </si>
+  <si>
+    <t>ansible adhoc commands</t>
+  </si>
+  <si>
+    <t>these are run using /usr/bin/ansible command line tool
+these are run once on a host or group of hosts
+these are not reusable
+these are not saved for future use
+useful for tasks that we do not want to repeat
+any ansible module can be used in adhoc commands</t>
+  </si>
+  <si>
+    <t>example of ansible adhoc command</t>
+  </si>
+  <si>
+    <t>$ ansible atlanta -a "/sbin/reboot"
+reboot all servers in "atlanta" group</t>
+  </si>
+  <si>
+    <t>how amny simultaneous processes ansible uses</t>
+  </si>
+  <si>
+    <t>By default ansible uses 5 simultaneous processes
+$ ansible atlanta -a "/sbin/reboot" -f 10 -u &lt;username&gt;
+use 10 parallel forks to reboot servers in atlanta group using specified user</t>
+  </si>
+  <si>
+    <t>use of --become</t>
+  </si>
+  <si>
+    <t>execute using privileged permission - sudo user
+run operation using sudo privelege</t>
+  </si>
+  <si>
+    <t>how to see all gathered facts</t>
+  </si>
+  <si>
+    <t>ansible -all -m setup</t>
+  </si>
+  <si>
+    <t>YAML tags</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name of the playbook</t>
+  </si>
+  <si>
+    <t>hosts</t>
+  </si>
+  <si>
+    <t>list of hosts against which you want to run the task</t>
+  </si>
+  <si>
+    <t>vars</t>
+  </si>
+  <si>
+    <t>variables that can be used in playbooks</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>list of actions that need to be performed</t>
+  </si>
+  <si>
+    <t>Ansible tower</t>
+  </si>
+  <si>
+    <t>web based solution
+easy user interface
+allows to share SSH credentials without exposing them
+manage inventory, log jobs</t>
+  </si>
+  <si>
+    <t>Logical way of organizing tasks and related files
+For eg for installing software on client machine - all tasks and related data will be put under a role
+collection of files, tasks, templates, variables, modules
+playbook is broken into multiple files using roles</t>
+  </si>
+  <si>
+    <t>directory structure of roles</t>
+  </si>
+  <si>
+    <t>defaults, handlers, meta, tasks, vars</t>
+  </si>
+  <si>
+    <t>Name associated or given to a task
+The tag can then later be used to execute only specific part of the playbook (-tags)
+or to skip that task (-skip-tags)</t>
+  </si>
+  <si>
+    <t>ansible galaxy</t>
+  </si>
+  <si>
+    <t>people share roles in ansible galaxy</t>
+  </si>
+  <si>
+    <t>commands or set of commands that are to be executed on the client machine
+these can be executed from command line or from playbooks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -518,9 +851,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -803,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1252,7 +1588,370 @@
         <v>108</v>
       </c>
     </row>
+    <row r="56" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>